--- a/biology/Botanique/Anémone/Anémone.xlsx
+++ b/biology/Botanique/Anémone/Anémone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An%C3%A9mone</t>
+          <t>Anémone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anemone
 Les anémones (genre Anemone L.) sont des plantes à fleurs de la famille des Renonculacées qui poussent dans les zones tempérées des deux hémisphères.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>An%C3%A9mone</t>
+          <t>Anémone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Dénominations et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anémone vient du grec ἀνεμώνη, souvent interprété comme un dérivé de ἄνεμος (anemos = courant de vent) qui signifierait « fille du vent », parce que le vent emporte ses graines plumeuses à de grandes distances. Ce n'est probablement qu'une étymologie populaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anémone vient du grec ἀνεμώνη, souvent interprété comme un dérivé de ἄνεμος (anemos = courant de vent) qui signifierait « fille du vent », parce que le vent emporte ses graines plumeuses à de grandes distances. Ce n'est probablement qu'une étymologie populaire.
 	Quelques espèces connues en français
 			Anémone du Canada.
 			Anémone couronnée.
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An%C3%A9mone</t>
+          <t>Anémone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,10 +572,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les anémones sont des plantes herbacées vivaces, de hauteur modérée et munies de stolons ou de bulbes. Le genre anémone se distingue par des fleurs régulières sans éperons, 3 à 8 sépales qui ressemblent à des pétales, une tige munie d’un involucre composé de 3 bractées verticillées, des feuilles finement découpées et un style à pointe courte[2].
-Les fleurs sont hermaphrodites et allogames, fécondées par des insectes. Les graines sont contenues dans des loges qui s’ouvrent à maturité[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anémones sont des plantes herbacées vivaces, de hauteur modérée et munies de stolons ou de bulbes. Le genre anémone se distingue par des fleurs régulières sans éperons, 3 à 8 sépales qui ressemblent à des pétales, une tige munie d’un involucre composé de 3 bractées verticillées, des feuilles finement découpées et un style à pointe courte.
+Les fleurs sont hermaphrodites et allogames, fécondées par des insectes. Les graines sont contenues dans des loges qui s’ouvrent à maturité.
 </t>
         </is>
       </c>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>An%C3%A9mone</t>
+          <t>Anémone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,12 +606,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-Selon les époques et les auteurs, A. hepatica et A. pulsatila sont incluses dans le genre Anemone ou classées dans des genres distincts Hepatica et Pulsatila[4].
-Liste des espèces
-Selon The Plant List            (16 octobre 2017)[5] :
+Selon les époques et les auteurs, A. hepatica et A. pulsatila sont incluses dans le genre Anemone ou classées dans des genres distincts Hepatica et Pulsatila.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anémone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (16 octobre 2017) :
 Anemone afghanica (sv) Podlech
 Anemone airei (vi) H.Lév.
 Anemone alaschanica (sv) (Schipcz.) Grabovsk.
@@ -770,7 +823,7 @@
 Anemone yezoensis (Miyabe) Koidz.
 Anemone yulongshanica W.T.Wang
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (16 octobre 2017)[6] (attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 octobre 2017) (attention liste brute contenant possiblement des synonymes) :
 Anemone abdurrehmanii Qureshi &amp; Chaudhri
 Anemone aconitifolia Turcz.
 Anemone acutiloba (DC.) G. Lawson
@@ -1203,44 +1256,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>An%C3%A9mone</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/An%C3%A9mone</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anémone des fleuristes (Anemone coronaria) est appréciée et sélectionnée par les horticulteurs pour ses fleurs aux couleurs vives, notamment sous le nom d'anémone de Caen et sa forme améliorée par l'agronomie, la tétranémone[7].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>An%C3%A9mone</t>
+          <t>Anémone</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1255,22 +1277,197 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anémone des fleuristes (Anemone coronaria) est appréciée et sélectionnée par les horticulteurs pour ses fleurs aux couleurs vives, notamment sous le nom d'anémone de Caen et sa forme améliorée par l'agronomie, la tétranémone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anémone</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mone</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>L'anémone dans la culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symbolique
-L'anémone, dans les enluminures du Moyen Âge, est le symbole de l'abandon.
-Mythologie grecque
-Dans la mythologie grecque, Anémone est une nymphe dont s'éprend Zéphyr, dieu des vents. La femme de ce dernier, par jalousie, la transforma en fleur. Anemos, en grec, signifie « vent »[8].
-Les Anciens confondaient l'anémone et l'adonis (Anemone nemorosa et Adonis vernalis) dans la légende d'Adonis[9]. « Adonis » symbolise la mort et le renouveau de la nature. Il était aimé à la fois d'Aphrodite, déesse de l'amour, et de Perséphone, reine des morts. Le conflit entre les deux déesses s'envenima. La haine qu'elles éprouvaient l'une pour l'autre crût démesurément, contraignant Zeus (roi des dieux) à s'interposer entre les deux rivales. L'arbitre suprême exigea alors, de manière à contenter chacune des parties, qu'Adonis passe un tiers de son temps avec Aphrodite, un tiers avec Perséphone et le tiers suivant où bon lui semble. Au cours d'une chasse, il fut tué par un sanglier, envoyé par Artémis ou Arès. Des gouttes de son sang jaillirent des anémones. Aphrodite éplorée demanda aux dieux infernaux de lui permettre de vivre la moitié de l'année sur Terre, à ses côtés, et l'autre moitié dans les Enfers[8].
-Prénom
-Anne-aymone est un prénom féminin.
-Calendrier républicain
-Dans le calendrier républicain, l'Anémone était le nom attribué au 27e jour du mois de germinal[10], généralement chaque 16 avril du calendrier grégorien.
-Poésie
-« L'anémone et l'ancolie ont poussé dans le jardin » est le premier vers du poème Clotilde du recueil Alcools de Guillaume Apollinaire.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'anémone, dans les enluminures du Moyen Âge, est le symbole de l'abandon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anémone</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L'anémone dans la culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mythologie grecque</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la mythologie grecque, Anémone est une nymphe dont s'éprend Zéphyr, dieu des vents. La femme de ce dernier, par jalousie, la transforma en fleur. Anemos, en grec, signifie « vent ».
+Les Anciens confondaient l'anémone et l'adonis (Anemone nemorosa et Adonis vernalis) dans la légende d'Adonis. « Adonis » symbolise la mort et le renouveau de la nature. Il était aimé à la fois d'Aphrodite, déesse de l'amour, et de Perséphone, reine des morts. Le conflit entre les deux déesses s'envenima. La haine qu'elles éprouvaient l'une pour l'autre crût démesurément, contraignant Zeus (roi des dieux) à s'interposer entre les deux rivales. L'arbitre suprême exigea alors, de manière à contenter chacune des parties, qu'Adonis passe un tiers de son temps avec Aphrodite, un tiers avec Perséphone et le tiers suivant où bon lui semble. Au cours d'une chasse, il fut tué par un sanglier, envoyé par Artémis ou Arès. Des gouttes de son sang jaillirent des anémones. Aphrodite éplorée demanda aux dieux infernaux de lui permettre de vivre la moitié de l'année sur Terre, à ses côtés, et l'autre moitié dans les Enfers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anémone</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mone</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>L'anémone dans la culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Anne-aymone est un prénom féminin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anémone</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mone</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>L'anémone dans la culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, l'Anémone était le nom attribué au 27e jour du mois de germinal, généralement chaque 16 avril du calendrier grégorien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anémone</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/An%C3%A9mone</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>L'anémone dans la culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« L'anémone et l'ancolie ont poussé dans le jardin » est le premier vers du poème Clotilde du recueil Alcools de Guillaume Apollinaire.
 </t>
         </is>
       </c>
